--- a/budgeteer-web-interface/src/test/resources/org/wickedsource/budgeteer/service/template/exampleTemplate1.xlsx
+++ b/budgeteer-web-interface/src/test/resources/org/wickedsource/budgeteer/service/template/exampleTemplate1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wirz\git\budgeteer\budgeteer-web-interface\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atanasov\eclipse-workspace\budgeteer\budgeteer-web-interface\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>Bruttoumsatz</t>
   </si>
@@ -111,6 +111,45 @@
   </si>
   <si>
     <t>Summe {name}</t>
+  </si>
+  <si>
+    <t>Accounting period</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>Until</t>
+  </si>
+  <si>
+    <t>Spent net</t>
+  </si>
+  <si>
+    <t>Spent gross</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Remaining budget net</t>
+  </si>
+  <si>
+    <t>Remaining budget gross</t>
+  </si>
+  <si>
+    <t>Progress</t>
+  </si>
+  <si>
+    <t>Invoice recipient</t>
+  </si>
+  <si>
+    <t>Sum according to invoice recipient</t>
+  </si>
+  <si>
+    <t>Sum {name}</t>
+  </si>
+  <si>
+    <t>Total sum</t>
   </si>
 </sst>
 </file>
@@ -624,59 +663,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="21.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="21.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.21875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.88671875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.44140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B2" s="17"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>13</v>
       </c>
@@ -708,9 +749,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -722,9 +763,9 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -751,9 +792,9 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -798,25 +839,25 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="21.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.5546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.44140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="17"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
@@ -848,7 +889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>13</v>
       </c>
@@ -880,7 +921,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -894,7 +935,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
@@ -923,7 +964,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>1</v>
       </c>
@@ -970,9 +1011,9 @@
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>22</v>
       </c>
